--- a/Elite Novo Force Power Curves.xlsx
+++ b/Elite Novo Force Power Curves.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\zwift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\vpower-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178F83DD-CC01-49BA-91E0-6CA578834D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D0A6E-2BB3-4C6B-B148-C9CA133E2711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4005" yWindow="3810" windowWidth="28800" windowHeight="15345" xr2:uid="{81BED0E9-CC1C-47EC-A280-5843AA702102}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Elite Power Curve" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>km/h</t>
   </si>
@@ -75,21 +74,6 @@
   <si>
     <t>E</t>
   </si>
-  <si>
-    <t xml:space="preserve">B = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">E = </t>
-  </si>
 </sst>
 </file>
 
@@ -132,10 +116,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3135,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C40BF-C640-4341-8182-9BC93C13F65B}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D28"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,16 +3135,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3243,35 +3227,35 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <f>B$14*$A3^4+B$15*$A3^3+B$16*$A3^2+B$17*$A3+B$18</f>
         <v>-4.1125541125555998E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <f t="shared" ref="L3:R9" si="0">C$14*$A3^4+C$15*$A3^3+C$16*$A3^2+C$17*$A3+C$18</f>
         <v>-0.46536796536799407</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>-0.181818181818171</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f t="shared" si="0"/>
         <v>-0.31601731601740113</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <f t="shared" si="0"/>
         <v>-9.5238095237817788E-2</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <f t="shared" si="0"/>
         <v>0.53463203463198283</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <f t="shared" si="0"/>
         <v>-1.0259740259738237</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <f t="shared" si="0"/>
         <v>-1.0173160173155793</v>
       </c>
@@ -3304,35 +3288,35 @@
       <c r="I4">
         <v>110</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K9" si="1">B$14*$A4^4+B$15*$A4^3+B$16*$A4^2+B$17*$A4+B$18</f>
         <v>25.032467532467518</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>34.601731601731608</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>43.709956709956757</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>56.229437229437352</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>66.261904761905242</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>80.935064935065157</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>99.346320346320823</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <f t="shared" si="0"/>
         <v>113.96103896103938</v>
       </c>
@@ -3365,35 +3349,35 @@
       <c r="I5">
         <v>300</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
         <v>61.454545454545467</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>82.971861471861502</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>107.17748917748925</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f t="shared" si="0"/>
         <v>140.59307359307371</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>176.11904761904799</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>212.30519480519493</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <f t="shared" si="0"/>
         <v>260.65800865800895</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <f t="shared" si="0"/>
         <v>295.45454545454578</v>
       </c>
@@ -3426,35 +3410,35 @@
       <c r="I6">
         <v>499</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
         <v>108.67965367965368</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>142.40259740259745</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>183.82683982683986</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>239.65367965367972</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <f t="shared" si="0"/>
         <v>298.80952380952397</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>360.73593073593076</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f t="shared" si="0"/>
         <v>437.42424242424238</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <f t="shared" si="0"/>
         <v>497.91774891774924</v>
       </c>
@@ -3487,35 +3471,35 @@
       <c r="I7">
         <v>690</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
         <v>165.52597402597402</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>210.92424242424244</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>268.0822510822511</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f t="shared" si="0"/>
         <v>343.92640692640697</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f t="shared" si="0"/>
         <v>418.66666666666674</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>507.59090909090889</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <f t="shared" si="0"/>
         <v>607.70562770562753</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <f t="shared" si="0"/>
         <v>696.16883116883116</v>
       </c>
@@ -3548,35 +3532,35 @@
       <c r="I8">
         <v>890</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
         <v>230.17532467532465</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>286.8398268398268</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>355.18614718614714</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
         <v>447.5627705627706</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <f t="shared" si="0"/>
         <v>535.02380952380952</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>649.50649350649326</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <f t="shared" si="0"/>
         <v>773.10822510822447</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <f t="shared" si="0"/>
         <v>885.38961038960997</v>
       </c>
@@ -3609,35 +3593,35 @@
       <c r="I9">
         <v>1080</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
         <v>300.17316017316017</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>368.72510822510822</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>441.19913419913411</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>548.35064935064918</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f t="shared" si="0"/>
         <v>662.21428571428532</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <f t="shared" si="0"/>
         <v>798.39177489177462</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <f t="shared" si="0"/>
         <v>958.78354978354866</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <f t="shared" si="0"/>
         <v>1081.1255411255406</v>
       </c>
@@ -3824,46 +3808,6 @@
       </c>
       <c r="I18">
         <f>INDEX(LINEST(I3:I9,$A$3:$A$9^{1,2,3,4}),5)</f>
-        <v>-1.0173160173155793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>8.4848484848484628E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>-1.2681818181818162E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>0.65363636363636279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>6.1448051948052003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28">
         <v>-1.0173160173155793</v>
       </c>
     </row>
